--- a/tut05/output/0401ME16.xlsx
+++ b/tut05/output/0401ME16.xlsx
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.877551020408164</v>
+        <v>7.88</v>
       </c>
       <c r="C6" t="n">
-        <v>8.181818181818182</v>
+        <v>8.18</v>
       </c>
       <c r="D6" t="n">
-        <v>8.893617021276595</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>8.591836734693878</v>
+        <v>8.59</v>
       </c>
       <c r="F6" t="n">
-        <v>8.782608695652174</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>8.782608695652174</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="H6" t="n">
         <v>9.85</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.877551020408164</v>
+        <v>7.88</v>
       </c>
       <c r="C8" t="n">
-        <v>8.021505376344086</v>
+        <v>8.02</v>
       </c>
       <c r="D8" t="n">
-        <v>8.314285714285715</v>
+        <v>8.31</v>
       </c>
       <c r="E8" t="n">
-        <v>8.386243386243386</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>8.463829787234042</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>8.516014234875446</v>
+        <v>8.52</v>
       </c>
       <c r="H8" t="n">
-        <v>8.682242990654206</v>
+        <v>8.68</v>
       </c>
       <c r="I8" t="n">
-        <v>8.734072022160666</v>
+        <v>8.73</v>
       </c>
     </row>
   </sheetData>
